--- a/config_Release/fish_face_config.xlsx
+++ b/config_Release/fish_face_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_捕鱼比赛配置\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="config|鱼配置" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>id|表情ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>by_animator25</t>
   </si>
   <si>
@@ -53,6 +49,103 @@
   </si>
   <si>
     <t>max_time|</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decs|描述 针对类型2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_animator26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金炸弹鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美人鱼等</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小牛角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获彩金鱼，可以进行彩金抽奖哦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的发型帅吗?</t>
+  </si>
+  <si>
+    <t>你也太狠了吧</t>
+  </si>
+  <si>
+    <t>别惹我，我可是会爆炸的!</t>
+  </si>
+  <si>
+    <t>不要这么对我嘛</t>
+  </si>
+  <si>
+    <t>哼，都欺负我</t>
+  </si>
+  <si>
+    <t>使用电磁炮捕获更多的鱼吧</t>
+  </si>
+  <si>
+    <t>强击炮可以获得双倍奖励哦</t>
+  </si>
+  <si>
+    <t>id|ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结就是力量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>让开，让开，炸弹可是不长眼的!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定提高捕获概率哦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻防止鱼类逃跑哦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿云弹可以进行穿透，最后还会大爆炸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值获得特殊炮台，拥有特殊技能把</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获BOSS鱼可进入海怪排行榜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>听说打BOSS鱼会掉高级彩贝哦~</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -134,6 +227,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -142,7 +246,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,6 +266,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -439,11 +552,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -453,7 +566,7 @@
     <col min="3" max="6" width="19.25" customWidth="1"/>
     <col min="7" max="7" width="21.625" customWidth="1"/>
     <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="40.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.25" customWidth="1"/>
     <col min="11" max="11" width="21.125" customWidth="1"/>
     <col min="12" max="12" width="25.125" customWidth="1"/>
@@ -465,165 +578,511 @@
     <col min="21" max="22" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5">
+        <v>20</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5">
+        <v>20</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
+        <v>20</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5">
+        <v>20</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5">
+        <v>20</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5">
+        <v>20</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5">
+        <v>20</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5">
+        <v>20</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5">
+        <v>20</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14" s="5">
+        <v>20</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5">
+        <v>20</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5">
+        <v>20</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5">
+        <v>20</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
@@ -654,7 +1113,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -866,6 +1325,39 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/fish_face_config.xlsx
+++ b/config_Release/fish_face_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -137,15 +137,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>充值获得特殊炮台，拥有特殊技能把</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>捕获BOSS鱼可进入海怪排行榜</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>听说打BOSS鱼会掉高级彩贝哦~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值可获得特殊炮台，拥有特殊技能！</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G16" sqref="G16"/>
+      <selection pane="topRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -829,7 +829,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -1081,7 +1081,7 @@
         <v>20</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">

--- a/config_Release/fish_face_config.xlsx
+++ b/config_Release/fish_face_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>充值可获得特殊炮台，拥有特殊技能！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛送福，财源滚滚！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>有本事打倒我，送你金元宝！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛气冲天，大吉大利！</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +568,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I18" sqref="I18"/>
+      <selection pane="topRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1085,25 +1097,85 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5">
+        <v>20</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5">
+        <v>20</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5">
+        <v>20</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>

--- a/config_Release/fish_face_config.xlsx
+++ b/config_Release/fish_face_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,15 +149,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>金牛送福，财源滚滚！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>有本事打倒我，送你金元宝！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛气冲天，大吉大利！</t>
+    <t>打到我得星星，换奖品！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿运当头，星途璀璨！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星送福，财源广进！</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +568,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I27" sqref="I27"/>
+      <selection pane="topRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_Release/fish_face_config.xlsx
+++ b/config_Release/fish_face_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,15 +149,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>打到我得星星，换奖品！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸿运当头，星途璀璨！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星送福，财源广进！</t>
+    <t>年兽祈福，财运亨通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹换礼，招财进宝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金玉满堂，八方来财</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +200,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -258,7 +265,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,6 +293,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -568,7 +578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I26" sqref="I26"/>
+      <selection pane="topRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1096,7 +1106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1119,11 +1129,11 @@
       <c r="H19" s="5">
         <v>20</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1146,11 +1156,11 @@
       <c r="H20" s="5">
         <v>20</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1173,7 +1183,7 @@
       <c r="H21" s="5">
         <v>20</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="10" t="s">
         <v>36</v>
       </c>
     </row>

--- a/config_Release/fish_face_config.xlsx
+++ b/config_Release/fish_face_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,15 +149,51 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>年兽祈福，财运亨通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹换礼，招财进宝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金玉满堂，八方来财</t>
+    <t>招财进宝，八方来财!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打倒我有丰厚奖励哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>财源滚滚，大吉大利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,10 +238,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -265,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,8 +336,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -578,7 +623,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I21" sqref="I21"/>
+      <selection pane="topRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1106,7 +1151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1129,11 +1174,11 @@
       <c r="H19" s="5">
         <v>20</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1160,7 +1205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>

--- a/config_Release/fish_face_config.xlsx
+++ b/config_Release/fish_face_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -149,59 +149,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>招财进宝，八方来财!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打倒我有丰厚奖励哦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>!</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>财源滚滚，大吉大利</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>!</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>打倒我有惊喜奖励哦～</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,16 +193,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF111F2C"/>
-      <name val="Segoe UI"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF111F2C"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -307,7 +256,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,10 +285,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -623,7 +569,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I26" sqref="I26"/>
+      <selection pane="topRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1151,7 +1097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1174,11 +1120,11 @@
       <c r="H19" s="5">
         <v>20</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1202,10 +1148,10 @@
         <v>20</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1229,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">

--- a/config_Release/fish_face_config.xlsx
+++ b/config_Release/fish_face_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,7 +149,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>打倒我有惊喜奖励哦～</t>
+    <t>捕获我有丰厚奖励哦！</t>
   </si>
 </sst>
 </file>
@@ -285,7 +285,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,7 +569,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I25" sqref="I25"/>
+      <selection pane="topRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
